--- a/data/trans_orig/P69_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P69_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97F850D3-F105-4115-BE99-A1E3C38B8941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{412BFFF6-903D-4862-A6CA-AA3667044484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C883422E-B863-4C9B-9C6D-D709580CB342}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D262D18-FC2C-46BA-AEFD-E99C47F31589}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="190">
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>99,09%</t>
   </si>
   <si>
-    <t>95,28%</t>
+    <t>95,53%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,7 +92,7 @@
     <t>99,32%</t>
   </si>
   <si>
-    <t>96,82%</t>
+    <t>96,07%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,72%</t>
+    <t>4,47%</t>
   </si>
   <si>
     <t>0%</t>
@@ -116,7 +116,7 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,18%</t>
+    <t>3,93%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -125,10 +125,10 @@
     <t>99,01%</t>
   </si>
   <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>98,36%</t>
@@ -137,7 +137,7 @@
     <t>99,3%</t>
   </si>
   <si>
-    <t>98,12%</t>
+    <t>98,1%</t>
   </si>
   <si>
     <t>99,79%</t>
@@ -146,10 +146,10 @@
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
   </si>
   <si>
     <t>1,64%</t>
@@ -161,7 +161,7 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,88%</t>
+    <t>1,9%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -188,7 +188,7 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>98,04%</t>
+    <t>98,13%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -197,118 +197,130 @@
     <t>99,44%</t>
   </si>
   <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2012 (Tasa respuesta: 7,93%)</t>
+  </si>
+  <si>
     <t>98,62%</t>
   </si>
   <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2012 (Tasa respuesta: 7,93%)</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>1,03%</t>
   </si>
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2015 (Tasa respuesta: 8,05%)</t>
@@ -320,13 +332,13 @@
     <t>93,83%</t>
   </si>
   <si>
-    <t>74,39%</t>
+    <t>63,75%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>91,92%</t>
+    <t>92,32%</t>
   </si>
   <si>
     <t>3,68%</t>
@@ -335,19 +347,19 @@
     <t>6,17%</t>
   </si>
   <si>
-    <t>25,61%</t>
+    <t>36,25%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>8,08%</t>
+    <t>7,68%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>96,67%</t>
+    <t>96,24%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -359,7 +371,7 @@
     <t>99,19%</t>
   </si>
   <si>
-    <t>97,85%</t>
+    <t>97,82%</t>
   </si>
   <si>
     <t>99,74%</t>
@@ -371,7 +383,7 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>3,33%</t>
+    <t>3,76%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -383,13 +395,13 @@
     <t>0,26%</t>
   </si>
   <si>
-    <t>2,15%</t>
+    <t>2,18%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>90,4%</t>
+    <t>91,53%</t>
   </si>
   <si>
     <t>97,18%</t>
@@ -398,13 +410,13 @@
     <t>99,25%</t>
   </si>
   <si>
-    <t>96,19%</t>
+    <t>95,2%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>9,6%</t>
+    <t>8,47%</t>
   </si>
   <si>
     <t>2,82%</t>
@@ -413,43 +425,43 @@
     <t>0,75%</t>
   </si>
   <si>
-    <t>3,81%</t>
+    <t>4,8%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>97,19%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>2,81%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2023 (Tasa respuesta: 9,29%)</t>
@@ -461,13 +473,13 @@
     <t>99,45%</t>
   </si>
   <si>
-    <t>95,81%</t>
+    <t>95,98%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>98,43%</t>
+    <t>98,66%</t>
   </si>
   <si>
     <t>5,3%</t>
@@ -476,133 +488,127 @@
     <t>0,55%</t>
   </si>
   <si>
-    <t>4,19%</t>
+    <t>4,02%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
   </si>
   <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>97,74%</t>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B47EC62-14EB-4A1B-A1B0-79E8486B48D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B3F9C4-98A2-4CBE-9AAC-D95B353D18F3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1765,7 +1771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090E09F9-734C-41C2-94AD-CA5B627D4CEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5444B71-BC88-4D39-97E3-714A20214EA4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1889,10 +1895,10 @@
         <v>57954</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -1907,7 +1913,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1919,10 +1925,10 @@
         <v>95889</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1940,13 +1946,13 @@
         <v>813</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1961,7 +1967,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1970,13 +1976,13 @@
         <v>813</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,7 +2053,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -2062,7 +2068,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -2077,7 +2083,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -2101,7 +2107,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2116,7 +2122,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2131,7 +2137,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,7 +2208,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -2217,7 +2223,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -2232,7 +2238,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -2256,7 +2262,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2271,7 +2277,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2286,7 +2292,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,10 +2360,10 @@
         <v>329680</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2372,7 +2378,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -2384,10 +2390,10 @@
         <v>545508</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2405,13 +2411,13 @@
         <v>813</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2426,7 +2432,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2435,13 +2441,13 @@
         <v>813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,7 +2522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2907733B-CB48-4F3A-A652-702DEE9172AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8BD42C-9BC5-43D0-9A86-384D0839C3D2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2533,7 +2539,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2643,7 +2649,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -2655,10 +2661,10 @@
         <v>16912</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2670,10 +2676,10 @@
         <v>72493</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2697,7 +2703,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2706,13 +2712,13 @@
         <v>1112</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2721,13 +2727,13 @@
         <v>1112</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,13 +2801,13 @@
         <v>226526</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>122</v>
@@ -2813,7 +2819,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -2825,13 +2831,13 @@
         <v>351091</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,13 +2852,13 @@
         <v>2856</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2867,7 +2873,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2876,13 +2882,13 @@
         <v>2856</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,10 +2956,10 @@
         <v>62493</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2968,7 +2974,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -2980,10 +2986,10 @@
         <v>136201</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3001,13 +3007,13 @@
         <v>1035</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3022,7 +3028,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3031,13 +3037,13 @@
         <v>1035</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,13 +3111,13 @@
         <v>344601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="H13" s="7">
         <v>206</v>
@@ -3120,10 +3126,10 @@
         <v>215186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3138,10 +3144,10 @@
         <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,13 +3162,13 @@
         <v>3890</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3171,13 +3177,13 @@
         <v>1112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3189,10 +3195,10 @@
         <v>56</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,7 +3273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408A596A-D86D-4D60-AB24-9CD975DE9AEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366D57F4-DA4C-426E-8714-82D606AA2C0F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3284,7 +3290,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3394,7 +3400,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -3406,10 +3412,10 @@
         <v>28835</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3421,10 +3427,10 @@
         <v>59315</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3448,7 +3454,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3457,13 +3463,13 @@
         <v>159</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3472,13 +3478,13 @@
         <v>159</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,7 +3555,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3561,13 +3567,13 @@
         <v>230980</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M7" s="7">
         <v>540</v>
@@ -3576,13 +3582,13 @@
         <v>478119</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,7 +3609,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3612,13 +3618,13 @@
         <v>2981</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -3627,13 +3633,13 @@
         <v>5192</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,10 +3707,10 @@
         <v>71048</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3716,10 +3722,10 @@
         <v>97304</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3731,10 +3737,10 @@
         <v>168352</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3752,13 +3758,13 @@
         <v>769</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3767,13 +3773,13 @@
         <v>792</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3782,13 +3788,13 @@
         <v>1561</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3862,13 @@
         <v>348667</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>467</v>
@@ -3871,13 +3877,13 @@
         <v>357120</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>801</v>
@@ -3886,13 +3892,13 @@
         <v>705786</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3913,13 @@
         <v>2979</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -3922,13 +3928,13 @@
         <v>3932</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -3937,13 +3943,13 @@
         <v>6912</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P69_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P69_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{412BFFF6-903D-4862-A6CA-AA3667044484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86005ABB-6A7B-47D1-B63B-670E9E69B28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D262D18-FC2C-46BA-AEFD-E99C47F31589}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CCBB59C4-60B5-4F2C-8727-0B92BC721F08}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,7 +77,7 @@
     <t>99,09%</t>
   </si>
   <si>
-    <t>95,53%</t>
+    <t>95,19%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,7 +92,7 @@
     <t>99,32%</t>
   </si>
   <si>
-    <t>96,07%</t>
+    <t>96,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,47%</t>
+    <t>4,81%</t>
   </si>
   <si>
     <t>0%</t>
@@ -116,7 +116,7 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,93%</t>
+    <t>3,92%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -125,7 +125,7 @@
     <t>99,01%</t>
   </si>
   <si>
-    <t>97,5%</t>
+    <t>97,32%</t>
   </si>
   <si>
     <t>99,71%</t>
@@ -137,478 +137,478 @@
     <t>99,3%</t>
   </si>
   <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2012 (Tasa respuesta: 7,93%)</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
     <t>98,1%</t>
   </si>
   <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
   </si>
   <si>
     <t>1,9%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2012 (Tasa respuesta: 7,93%)</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B3F9C4-98A2-4CBE-9AAC-D95B353D18F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4ADDBF-6987-44DA-84B7-C5E016A4DC99}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1615,7 +1615,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>215</v>
@@ -1627,7 +1627,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -1639,13 +1639,13 @@
         <v>688572</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,13 +1660,13 @@
         <v>3855</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1690,13 +1690,13 @@
         <v>3855</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,7 +1752,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +1771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5444B71-BC88-4D39-97E3-714A20214EA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08518274-5193-4D37-A3F9-52533C366F32}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1788,7 +1788,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1895,10 +1895,10 @@
         <v>57954</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -1913,7 +1913,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1925,10 +1925,10 @@
         <v>95889</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1946,13 +1946,13 @@
         <v>813</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1976,13 +1976,13 @@
         <v>813</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,7 +2053,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -2068,7 +2068,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -2083,7 +2083,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -2107,7 +2107,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2122,7 +2122,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,7 +2208,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -2223,7 +2223,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -2238,7 +2238,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -2262,7 +2262,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2277,7 +2277,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,10 +2360,10 @@
         <v>329680</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2378,7 +2378,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -2390,10 +2390,10 @@
         <v>545508</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2411,13 +2411,13 @@
         <v>813</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2441,13 +2441,13 @@
         <v>813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,7 +2503,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2522,7 +2522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8BD42C-9BC5-43D0-9A86-384D0839C3D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F919807-D067-4D17-88E9-31DC4278F096}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2539,7 +2539,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2649,7 +2649,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -2661,10 +2661,10 @@
         <v>16912</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2676,10 +2676,10 @@
         <v>72493</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2703,7 +2703,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2712,13 +2712,13 @@
         <v>1112</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2727,13 +2727,13 @@
         <v>1112</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2801,13 @@
         <v>226526</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H7" s="7">
         <v>122</v>
@@ -2819,7 +2819,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -2831,13 +2831,13 @@
         <v>351091</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,7 +2852,7 @@
         <v>2856</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>113</v>
@@ -3114,10 +3114,10 @@
         <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H13" s="7">
         <v>206</v>
@@ -3141,7 +3141,7 @@
         <v>559786</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>133</v>
@@ -3165,10 +3165,10 @@
         <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3192,7 +3192,7 @@
         <v>5002</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>139</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3273,7 +3273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366D57F4-DA4C-426E-8714-82D606AA2C0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E806DD47-8E49-4DED-9D61-3DFEBCD0EE07}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3552,7 +3552,7 @@
         <v>247139</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>152</v>
@@ -3603,7 +3603,7 @@
         <v>2211</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
@@ -3722,10 +3722,10 @@
         <v>97304</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3737,10 +3737,10 @@
         <v>168352</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3764,7 +3764,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3779,7 +3779,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3788,13 +3788,13 @@
         <v>1561</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3862,13 @@
         <v>348667</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>467</v>
@@ -3877,13 +3877,13 @@
         <v>357120</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>801</v>
@@ -3892,13 +3892,13 @@
         <v>705786</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3913,13 @@
         <v>2979</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -3928,13 +3928,13 @@
         <v>3932</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -3943,13 +3943,13 @@
         <v>6912</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,7 +4005,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P69_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P69_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86005ABB-6A7B-47D1-B63B-670E9E69B28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAE2673E-D343-40A8-B91C-FB7308AAEAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CCBB59C4-60B5-4F2C-8727-0B92BC721F08}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{088FE8A7-D5AF-417E-A7CA-11B3D0944ADF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="188">
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>99,09%</t>
   </si>
   <si>
-    <t>95,19%</t>
+    <t>95,28%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,7 +92,7 @@
     <t>99,32%</t>
   </si>
   <si>
-    <t>96,08%</t>
+    <t>96,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,81%</t>
+    <t>4,72%</t>
   </si>
   <si>
     <t>0%</t>
@@ -116,7 +116,7 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,92%</t>
+    <t>3,18%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -125,343 +125,331 @@
     <t>99,01%</t>
   </si>
   <si>
-    <t>97,32%</t>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2012 (Tasa respuesta: 7,93%)</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2012 (Tasa respuesta: 7,93%)</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>3,3%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2023 (Tasa respuesta: 9,29%)</t>
@@ -473,13 +461,13 @@
     <t>99,45%</t>
   </si>
   <si>
-    <t>95,98%</t>
+    <t>95,81%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>98,66%</t>
+    <t>98,43%</t>
   </si>
   <si>
     <t>5,3%</t>
@@ -488,127 +476,133 @@
     <t>0,55%</t>
   </si>
   <si>
-    <t>4,02%</t>
+    <t>4,19%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>97,69%</t>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
+    <t>1,74%</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4ADDBF-6987-44DA-84B7-C5E016A4DC99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0783C7BC-4616-4723-81E3-59D734B44108}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1615,7 +1609,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7">
         <v>215</v>
@@ -1627,7 +1621,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -1639,13 +1633,13 @@
         <v>688572</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,13 +1654,13 @@
         <v>3855</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1681,7 +1675,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1690,13 +1684,13 @@
         <v>3855</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,7 +1746,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +1765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08518274-5193-4D37-A3F9-52533C366F32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BE3491-B9F4-4B53-AFE8-A5AA60B176DB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1788,7 +1782,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1895,10 +1889,10 @@
         <v>57954</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -1913,7 +1907,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1925,10 +1919,10 @@
         <v>95889</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1946,13 +1940,13 @@
         <v>813</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1967,7 +1961,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1976,13 +1970,13 @@
         <v>813</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,7 +2047,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -2068,7 +2062,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -2083,7 +2077,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -2107,7 +2101,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2122,7 +2116,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2137,7 +2131,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,7 +2202,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -2223,7 +2217,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -2238,7 +2232,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -2262,7 +2256,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2277,7 +2271,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2292,7 +2286,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,10 +2354,10 @@
         <v>329680</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2378,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -2390,10 +2384,10 @@
         <v>545508</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2411,13 +2405,13 @@
         <v>813</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2432,7 +2426,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2441,13 +2435,13 @@
         <v>813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,7 +2497,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2522,7 +2516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F919807-D067-4D17-88E9-31DC4278F096}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DD6DBB-75CA-41B4-AFB7-2160D120D916}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2539,7 +2533,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2649,7 +2643,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -2661,10 +2655,10 @@
         <v>16912</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2676,10 +2670,10 @@
         <v>72493</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2703,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2712,13 +2706,13 @@
         <v>1112</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2727,13 +2721,13 @@
         <v>1112</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2795,13 @@
         <v>226526</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H7" s="7">
         <v>122</v>
@@ -2819,7 +2813,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -2831,13 +2825,13 @@
         <v>351091</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2846,13 @@
         <v>2856</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2873,7 +2867,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2882,13 +2876,13 @@
         <v>2856</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,10 +2950,10 @@
         <v>62493</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2974,7 +2968,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -2986,10 +2980,10 @@
         <v>136201</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3007,13 +3001,13 @@
         <v>1035</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3028,7 +3022,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3037,13 +3031,13 @@
         <v>1035</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3105,13 @@
         <v>344601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H13" s="7">
         <v>206</v>
@@ -3126,10 +3120,10 @@
         <v>215186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3141,13 +3135,13 @@
         <v>559786</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3156,13 @@
         <v>3890</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3177,13 +3171,13 @@
         <v>1112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3192,13 +3186,13 @@
         <v>5002</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,7 +3248,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3273,7 +3267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E806DD47-8E49-4DED-9D61-3DFEBCD0EE07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7B6C08-DBFF-49BC-BE91-0E8E77919E4F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3290,7 +3284,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3400,7 +3394,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -3412,10 +3406,10 @@
         <v>28835</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3427,10 +3421,10 @@
         <v>59315</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3454,7 +3448,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3463,13 +3457,13 @@
         <v>159</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3478,13 +3472,13 @@
         <v>159</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,10 +3546,10 @@
         <v>247139</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3567,13 +3561,13 @@
         <v>230980</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M7" s="7">
         <v>540</v>
@@ -3582,13 +3576,13 @@
         <v>478119</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3597,13 @@
         <v>2211</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3618,13 +3612,13 @@
         <v>2981</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -3633,13 +3627,13 @@
         <v>5192</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,10 +3701,10 @@
         <v>71048</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3722,10 +3716,10 @@
         <v>97304</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3737,10 +3731,10 @@
         <v>168352</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3758,13 +3752,13 @@
         <v>769</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3773,13 +3767,13 @@
         <v>792</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3788,13 +3782,13 @@
         <v>1561</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3856,13 @@
         <v>348667</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>467</v>
@@ -3877,13 +3871,13 @@
         <v>357120</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>801</v>
@@ -3892,13 +3886,13 @@
         <v>705786</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3907,13 @@
         <v>2979</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -3928,13 +3922,13 @@
         <v>3932</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -3943,13 +3937,13 @@
         <v>6912</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,7 +3999,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P69_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P69_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAE2673E-D343-40A8-B91C-FB7308AAEAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD861AAB-C18D-421A-9686-6F6D209ACE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{088FE8A7-D5AF-417E-A7CA-11B3D0944ADF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5CD0B41A-C38D-437A-85FC-3841B9A6EC1B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="174">
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -458,151 +458,109 @@
     <t>94,7%</t>
   </si>
   <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0783C7BC-4616-4723-81E3-59D734B44108}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8021B94-9312-498A-B1F7-16F889247E87}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1765,7 +1723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BE3491-B9F4-4B53-AFE8-A5AA60B176DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972B436D-284C-4ABA-B25F-B75D05F5E455}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2516,7 +2474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DD6DBB-75CA-41B4-AFB7-2160D120D916}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CF050A-E847-4A26-B459-A7C3655C0B3E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3267,7 +3225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7B6C08-DBFF-49BC-BE91-0E8E77919E4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E149D9-9485-4B57-919F-14997E54EC46}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3388,7 +3346,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>30480</v>
+        <v>29214</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>13</v>
@@ -3403,7 +3361,7 @@
         <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>28835</v>
+        <v>24824</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>139</v>
@@ -3418,13 +3376,13 @@
         <v>69</v>
       </c>
       <c r="N4" s="7">
-        <v>59315</v>
+        <v>54038</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3448,37 +3406,37 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,7 +3448,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="7">
-        <v>30480</v>
+        <v>29214</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
@@ -3505,7 +3463,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="7">
-        <v>28994</v>
+        <v>24986</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -3520,7 +3478,7 @@
         <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>59474</v>
+        <v>54200</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>15</v>
@@ -3543,13 +3501,13 @@
         <v>237</v>
       </c>
       <c r="D7" s="7">
-        <v>247139</v>
+        <v>237595</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3558,31 +3516,31 @@
         <v>303</v>
       </c>
       <c r="I7" s="7">
-        <v>230980</v>
+        <v>235650</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>540</v>
       </c>
       <c r="N7" s="7">
-        <v>478119</v>
+        <v>473245</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,46 +3552,46 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>2211</v>
+        <v>1985</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>2981</v>
+        <v>2718</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>5192</v>
+        <v>4703</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,7 +3603,7 @@
         <v>239</v>
       </c>
       <c r="D9" s="7">
-        <v>249350</v>
+        <v>239580</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -3660,7 +3618,7 @@
         <v>307</v>
       </c>
       <c r="I9" s="7">
-        <v>233961</v>
+        <v>238368</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -3675,7 +3633,7 @@
         <v>546</v>
       </c>
       <c r="N9" s="7">
-        <v>483311</v>
+        <v>477948</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -3698,13 +3656,13 @@
         <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>71048</v>
+        <v>68814</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3713,13 +3671,13 @@
         <v>130</v>
       </c>
       <c r="I10" s="7">
-        <v>97304</v>
+        <v>89960</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3728,13 +3686,13 @@
         <v>192</v>
       </c>
       <c r="N10" s="7">
-        <v>168352</v>
+        <v>158775</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3749,22 +3707,22 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>769</v>
+        <v>712</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>792</v>
+        <v>735</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>112</v>
@@ -3773,22 +3731,22 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1561</v>
+        <v>1446</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,7 +3758,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="7">
-        <v>71817</v>
+        <v>69526</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -3815,7 +3773,7 @@
         <v>131</v>
       </c>
       <c r="I12" s="7">
-        <v>98096</v>
+        <v>90695</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -3830,7 +3788,7 @@
         <v>194</v>
       </c>
       <c r="N12" s="7">
-        <v>169913</v>
+        <v>160221</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -3853,46 +3811,46 @@
         <v>334</v>
       </c>
       <c r="D13" s="7">
-        <v>348667</v>
+        <v>335624</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7">
         <v>467</v>
       </c>
       <c r="I13" s="7">
-        <v>357120</v>
+        <v>350434</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
         <v>801</v>
       </c>
       <c r="N13" s="7">
-        <v>705786</v>
+        <v>686058</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,46 +3862,46 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>2979</v>
+        <v>2696</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>3932</v>
+        <v>3615</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>6912</v>
+        <v>6311</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,7 +3913,7 @@
         <v>337</v>
       </c>
       <c r="D15" s="7">
-        <v>351646</v>
+        <v>338320</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -3970,7 +3928,7 @@
         <v>473</v>
       </c>
       <c r="I15" s="7">
-        <v>361052</v>
+        <v>354049</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -3985,7 +3943,7 @@
         <v>810</v>
       </c>
       <c r="N15" s="7">
-        <v>712698</v>
+        <v>692369</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
